--- a/public/files/FileMauTHPT.xlsx
+++ b/public/files/FileMauTHPT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tên</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -375,60 +378,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>12345</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>123456789</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
